--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3320401.370594425</v>
+        <v>3318149.290883217</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329263</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7408919424216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.74868616823362</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>125.6335400441264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.56600065598671</v>
+        <v>50.10896315666636</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278421</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>145.561416836302</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065908</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>198.7866240250368</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>138.6444210303392</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395859</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>88.98787776789642</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>27.24739666248502</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>174.9740119554616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.434538210426277</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>273.2361318359318</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>106.1949878935058</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>112.1382188876854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>65.25773758188275</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.593005428874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.05096575280744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>953.644089248686</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4401,16 +4401,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040963</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1319.603231339825</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4668,28 +4668,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>402.9356658273856</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>233.9994828994787</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1498.746472494764</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1498.746472494764</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1244.061984288877</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.061984288877</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.07243339086</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.2798542473295</v>
+        <v>584.5841306576253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>971.2814123723961</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>585.4931597741518</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>578.5476590249483</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3124.811251886912</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2793.748364543341</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.483062930404</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.798574724517</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5027,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5063,25 +5063,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273898</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273898</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792906</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433897</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673184</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168252</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>580.8993044876688</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>432.9862109052757</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>432.9862109052757</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>265.7901116201556</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348531</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2299.457522348531</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2532.719182723413</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257311</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133953</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5741,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,22 +6482,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
         <v>489.9894131830887</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,22 +7020,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
         <v>175.9033664000583</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>51.30683507832747</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.9994244361428</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>13.28686650065919</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>40.23897475306333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>221.2652607547083</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.5336875992874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>40.23897475306337</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017639</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698883.433001764</v>
+        <v>698883.4330017638</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184281</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>13606.80811184278</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184277</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184277</v>
       </c>
-      <c r="J4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184271</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790534.9362943247</v>
+        <v>-790534.9362943241</v>
       </c>
       <c r="C6" t="n">
-        <v>538209.8094332686</v>
+        <v>538209.809433268</v>
       </c>
       <c r="D6" t="n">
-        <v>538209.809433268</v>
+        <v>538209.8094332683</v>
       </c>
       <c r="E6" t="n">
-        <v>286290.1399779006</v>
+        <v>286255.402052464</v>
       </c>
       <c r="F6" t="n">
-        <v>611702.6017852557</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="G6" t="n">
-        <v>611702.6017852552</v>
+        <v>611667.8638598199</v>
       </c>
       <c r="H6" t="n">
-        <v>611702.6017852557</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="I6" t="n">
-        <v>611702.6017852556</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="J6" t="n">
-        <v>394171.3993879783</v>
+        <v>394136.6614625422</v>
       </c>
       <c r="K6" t="n">
-        <v>611702.6017852556</v>
+        <v>611667.8638598199</v>
       </c>
       <c r="L6" t="n">
-        <v>611702.6017852555</v>
+        <v>611667.8638598197</v>
       </c>
       <c r="M6" t="n">
-        <v>526647.573849744</v>
+        <v>526612.835924308</v>
       </c>
       <c r="N6" t="n">
-        <v>611702.6017852557</v>
+        <v>611667.8638598198</v>
       </c>
       <c r="O6" t="n">
-        <v>611702.6017852554</v>
+        <v>611667.8638598199</v>
       </c>
       <c r="P6" t="n">
-        <v>611702.6017852556</v>
+        <v>611667.8638598198</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393355</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.497046713632</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>20.18346650181373</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>160.8894582924646</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.1678410074938</v>
+        <v>332.6248785068142</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624401</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>73.98753243986718</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468626</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>52.20854793386513</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>147.5674171752737</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700509</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>169.6252075171361</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,13 +32099,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>166.2270851128142</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,13 +32315,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>651.5998000366021</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500298</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34457,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>23.94570355317219</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>20.54758114885028</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8360547723487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>90.01966967204032</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>509.0035555921577</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280115</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37622,16 +37622,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
